--- a/Quellen/Quellen.xlsx
+++ b/Quellen/Quellen.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robert\Desktop\Studium\Quellen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rob\Desktop\Studium\Quellen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8D1CAEF-49FA-4773-94F2-7DAEAFD2272E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB4C8508-5A45-47B1-8B40-2915CED2B2AB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00DE174A-4130-4904-9374-9606CD6C5AF7}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00DE174A-4130-4904-9374-9606CD6C5AF7}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
   <si>
     <t>Quellen</t>
   </si>
@@ -96,9 +96,6 @@
     <t>Bachelorarbeit (hs-mittweida.de)</t>
   </si>
   <si>
-    <t>Konditionierung, Virtual Reality, Bewegung, Operatives Lernen</t>
-  </si>
-  <si>
     <t>BA_Jens_Rauch_Gamification.pdf (uol.de)</t>
   </si>
   <si>
@@ -106,6 +103,30 @@
   </si>
   <si>
     <t>Biologische Grundlagen der Verhaltenstherapie | SpringerLink</t>
+  </si>
+  <si>
+    <t>Augmented und Virtual Reality: Stand der Technik, Nutzenpotenziale und Einsatzgebiete | SpringerLink</t>
+  </si>
+  <si>
+    <t>Augmented- und Virtual-Reality-Technologien zur Digitalisierung der Aus- und Weiterbildung – Überblick, Klassifikation und Vergleich | SpringerLink</t>
+  </si>
+  <si>
+    <t>Virtual Reality Moves – Interdisziplinäre Lehrkonzeption zur Entwicklung einer forschenden Haltung mittels Bewegung in, mit und durch Virtual Reality | SpringerLink</t>
+  </si>
+  <si>
+    <t>Konditionierung, Virtual Reality, (Fort)Bewegung, Operatives Lernen</t>
+  </si>
+  <si>
+    <t>muster-hausarbeit-vr-informatik.pdf (acad-write.com)</t>
+  </si>
+  <si>
+    <t>745922.pdf (rwth-aachen.de)</t>
+  </si>
+  <si>
+    <t>Human Gait in Virtual Reality : Analyses &amp; Changes of Gait during Locomotion in Immersive Virtual Environments | ediss.sub.hamburg (uni-hamburg.de)</t>
+  </si>
+  <si>
+    <t>Beitrag_219_final__a.pdf</t>
   </si>
 </sst>
 </file>
@@ -486,24 +507,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1ADA3AB-8093-45D6-A3E3-9BBC6180E21B}">
-  <dimension ref="B3:N26"/>
+  <dimension ref="B3:N34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="10" max="10" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:14" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:14" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="J3" s="2"/>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B4" s="3" t="s">
         <v>2</v>
       </c>
@@ -511,112 +532,147 @@
         <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B8" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B9" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B10" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B11" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B12" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B13" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B14" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B15" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B16" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B18" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B19" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B20" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B21" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B22" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B23" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B24" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B25" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B25" s="3" t="s">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B26" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B26" s="3" t="s">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B28" s="3" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B30" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B31" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B32" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B33" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B34" s="3" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -643,8 +699,15 @@
     <hyperlink ref="B24" r:id="rId20" display="https://uol.de/f/2/dept/informatik/ag/parsys/BA_Jens_Rauch_Gamification.pdf" xr:uid="{7E3E9572-7A8D-414C-AF2C-4AF644E578E9}"/>
     <hyperlink ref="B25" r:id="rId21" display="https://link.springer.com/chapter/10.1007/978-3-658-30178-1_6" xr:uid="{DE01963A-A4BE-4524-936E-E404516C2609}"/>
     <hyperlink ref="B26" r:id="rId22" display="https://link.springer.com/chapter/10.1007/978-3-540-79541-4_8" xr:uid="{DBD209CF-EEDE-4A3B-A024-A1F3C2DB8800}"/>
+    <hyperlink ref="B28" r:id="rId23" display="https://link.springer.com/chapter/10.1007/978-3-658-19123-8_7" xr:uid="{A2C6F843-DEC9-4C80-AD67-324792E89D9A}"/>
+    <hyperlink ref="B29" r:id="rId24" display="https://link.springer.com/chapter/10.1007/978-3-662-56551-3_2" xr:uid="{44E650BD-0051-4509-AB13-18E144728A70}"/>
+    <hyperlink ref="B30" r:id="rId25" display="https://link.springer.com/chapter/10.1007/978-3-658-25524-4_11" xr:uid="{2F461F71-5BC0-4076-B167-113692D26143}"/>
+    <hyperlink ref="B31" r:id="rId26" display="https://devde.acad-write.com/wp-content/uploads/2019/08/muster-hausarbeit-vr-informatik.pdf" xr:uid="{B6A29D5E-EAC6-42D8-ADD8-DB6249E43D48}"/>
+    <hyperlink ref="B32" r:id="rId27" display="https://publications.rwth-aachen.de/record/745922/files/745922.pdf" xr:uid="{5813B25C-0FD2-43C0-91C5-DAF5B8878444}"/>
+    <hyperlink ref="B33" r:id="rId28" display="https://ediss.sub.uni-hamburg.de/handle/ediss/6160" xr:uid="{E5FFFCCB-C3DE-4E29-8207-1F9D231730B9}"/>
+    <hyperlink ref="B34" r:id="rId29" display="../../../Downloads/Beitrag_219_final__a.pdf" xr:uid="{DB528F56-BAE6-4B89-8411-39EDC871B9EC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId23"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId30"/>
 </worksheet>
 </file>
--- a/Quellen/Quellen.xlsx
+++ b/Quellen/Quellen.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rob\Desktop\Studium\Quellen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robert\Desktop\Studium\Quellen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB4C8508-5A45-47B1-8B40-2915CED2B2AB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A794825C-2A0B-44F9-87B0-5AFF4074ECA4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00DE174A-4130-4904-9374-9606CD6C5AF7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00DE174A-4130-4904-9374-9606CD6C5AF7}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
     <t>Quellen</t>
   </si>
@@ -127,6 +127,12 @@
   </si>
   <si>
     <t>Beitrag_219_final__a.pdf</t>
+  </si>
+  <si>
+    <t>Ja</t>
+  </si>
+  <si>
+    <t>Nein</t>
   </si>
 </sst>
 </file>
@@ -507,24 +513,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1ADA3AB-8093-45D6-A3E3-9BBC6180E21B}">
-  <dimension ref="B3:N34"/>
+  <dimension ref="A3:N34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="10" max="10" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:14" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="J3" s="2"/>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>31</v>
+      </c>
       <c r="B4" s="3" t="s">
         <v>2</v>
       </c>
@@ -535,142 +544,145 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>32</v>
+      </c>
       <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B8" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B9" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B10" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B11" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B12" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B13" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B14" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B15" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B16" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B18" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B19" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B20" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B21" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B22" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B23" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B24" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B25" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B26" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B28" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B29" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B30" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B31" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B32" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B33" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B34" s="3" t="s">
         <v>30</v>
       </c>

--- a/Quellen/Quellen.xlsx
+++ b/Quellen/Quellen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robert\Desktop\Studium\Quellen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A794825C-2A0B-44F9-87B0-5AFF4074ECA4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE000473-C70A-48F5-AF17-5406E542C50B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00DE174A-4130-4904-9374-9606CD6C5AF7}"/>
+    <workbookView xWindow="-25320" yWindow="-2190" windowWidth="25440" windowHeight="15390" xr2:uid="{00DE174A-4130-4904-9374-9606CD6C5AF7}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
   <si>
     <t>Quellen</t>
   </si>
@@ -45,54 +45,18 @@
     <t>Context conditioning in humans using commercially available immersive Virtual Reality | Scientific Reports (nature.com)</t>
   </si>
   <si>
-    <t>US6057846A - Virtual reality psychophysiological conditioning medium - Google Patents</t>
-  </si>
-  <si>
     <t>Full article: Contextual fear conditioning predicts subsequent avoidance behaviour in a virtual reality environment (tandfonline.com)</t>
   </si>
   <si>
-    <t>The Persuasive Power of Virtual Reality: Effects of Simulated Human Distress on Attitudes towards Fire Safety | SpringerLink</t>
-  </si>
-  <si>
-    <t>Reinforcement learning utilizes proxemics: An avatar learns to manipulate the position of people in immersive virtual reality: ACM Transactions on Applied Perception: Vol 9, No 1</t>
-  </si>
-  <si>
-    <t>The Application of Virtual Reality Technology in ESP Teaching | SpringerLink</t>
-  </si>
-  <si>
-    <t>“Woodlands” - a Virtual Reality Serious Game Supporting Learning of Practical Road Safety Skills - IEEE Conference Publication</t>
-  </si>
-  <si>
-    <t>Drumming in Immersive Virtual Reality: The Body Shapes the Way We Play - IEEE Journals &amp; Magazine</t>
-  </si>
-  <si>
-    <t>Fear and Anxiety in Virtual Reality: Investigations of cue and context ... - Hannah Genheimer - Google Books</t>
-  </si>
-  <si>
-    <t>Frontiers | An Accumulation-of-Evidence Task Using Visual Pulses for Mice Navigating in Virtual Reality | Behavioral Neuroscience (frontiersin.org)</t>
-  </si>
-  <si>
-    <t>The Psychology of Attitudes and Attitude Change - Google Books</t>
-  </si>
-  <si>
     <t>US20180366028A1 - System for behavioral conditioning through gamification - Google Patents</t>
   </si>
   <si>
     <t>Altering User Movement Behaviour in Virtual Environments - IEEE Journals &amp; Magazine</t>
   </si>
   <si>
-    <t>Lernen durch Verstärkung (Reinforcement Learning) | SpringerLink</t>
-  </si>
-  <si>
-    <t>Verstärkung | SpringerLink</t>
-  </si>
-  <si>
     <t>Operante Methoden | SpringerLink</t>
   </si>
   <si>
-    <t>Kognitive Verhaltenstherapie der Computerspielsucht - Zurich Open Repository and Archive (uzh.ch)</t>
-  </si>
-  <si>
     <t>Bachelorarbeit (hs-mittweida.de)</t>
   </si>
   <si>
@@ -102,21 +66,9 @@
     <t>Theoretische Grundlagen des Lernens | SpringerLink</t>
   </si>
   <si>
-    <t>Biologische Grundlagen der Verhaltenstherapie | SpringerLink</t>
-  </si>
-  <si>
     <t>Augmented und Virtual Reality: Stand der Technik, Nutzenpotenziale und Einsatzgebiete | SpringerLink</t>
   </si>
   <si>
-    <t>Augmented- und Virtual-Reality-Technologien zur Digitalisierung der Aus- und Weiterbildung – Überblick, Klassifikation und Vergleich | SpringerLink</t>
-  </si>
-  <si>
-    <t>Virtual Reality Moves – Interdisziplinäre Lehrkonzeption zur Entwicklung einer forschenden Haltung mittels Bewegung in, mit und durch Virtual Reality | SpringerLink</t>
-  </si>
-  <si>
-    <t>Konditionierung, Virtual Reality, (Fort)Bewegung, Operatives Lernen</t>
-  </si>
-  <si>
     <t>muster-hausarbeit-vr-informatik.pdf (acad-write.com)</t>
   </si>
   <si>
@@ -126,13 +78,37 @@
     <t>Human Gait in Virtual Reality : Analyses &amp; Changes of Gait during Locomotion in Immersive Virtual Environments | ediss.sub.hamburg (uni-hamburg.de)</t>
   </si>
   <si>
-    <t>Beitrag_219_final__a.pdf</t>
-  </si>
-  <si>
-    <t>Ja</t>
-  </si>
-  <si>
-    <t>Nein</t>
+    <t>From presence to consciousness through virtual reality | Nature Reviews Neuroscience</t>
+  </si>
+  <si>
+    <t>Muster</t>
+  </si>
+  <si>
+    <t>Dissertation</t>
+  </si>
+  <si>
+    <t>Walking &gt; walking-in-place &gt; flying, in virtual environments | Proceedings of the 26th annual conference on Computer graphics and interactive techniques (acm.org)</t>
+  </si>
+  <si>
+    <t>Obstacle avoidance during walking in real and virtual environments | ACM Transactions on Applied Perception</t>
+  </si>
+  <si>
+    <t>Redirected walking to explore virtual environments: Assessing the potential for spatial interference: ACM Transactions on Applied Perception: Vol 8, No 4</t>
+  </si>
+  <si>
+    <t>(operante) Konditionierung, Virtual Reality, (Fort)Bewegung, Operatives Lernen, Benutzerverhalten</t>
+  </si>
+  <si>
+    <t>Virtual Reality, Locomotion, User behaviour</t>
+  </si>
+  <si>
+    <t>Encyclopedia of Child Behavior and Development | SpringerLink</t>
+  </si>
+  <si>
+    <t>Jahresreport-der-deutschen-Games-Branche-2018.pdf</t>
+  </si>
+  <si>
+    <t>Operante Konditionierung • Skinner und Definition | Studylfix · [mit Video] (studyflix.de)</t>
   </si>
 </sst>
 </file>
@@ -513,10 +489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1ADA3AB-8093-45D6-A3E3-9BBC6180E21B}">
-  <dimension ref="A3:N34"/>
+  <dimension ref="B3:N34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -524,202 +500,165 @@
     <col min="10" max="10" width="18.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:14" ht="23.4" x14ac:dyDescent="0.45">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="J3" s="2"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>2</v>
-      </c>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="M4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>32</v>
-      </c>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="N5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B6" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B6" s="3" t="s">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B7" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B8" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B7" s="3" t="s">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B9" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B8" s="3" t="s">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B10" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B11" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B9" s="3" t="s">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B12" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="M13" t="s">
+        <v>15</v>
+      </c>
+      <c r="N13" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B10" s="3" t="s">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M14" t="s">
+        <v>15</v>
+      </c>
+      <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B11" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B12" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B13" s="3" t="s">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="M15" t="s">
+        <v>15</v>
+      </c>
+      <c r="N15" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B14" s="3" t="s">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M16" t="s">
+        <v>16</v>
+      </c>
+      <c r="N16" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B15" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B16" s="3" t="s">
-        <v>14</v>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B17" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B18" s="3" t="s">
-        <v>15</v>
-      </c>
+      <c r="B18" s="3"/>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B19" s="3" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B20" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B21" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B22" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B23" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B24" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B25" s="3" t="s">
-        <v>21</v>
-      </c>
+      <c r="B20" s="3"/>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B26" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B28" s="3" t="s">
-        <v>23</v>
-      </c>
+      <c r="B26" s="3"/>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B29" s="3" t="s">
-        <v>24</v>
-      </c>
+      <c r="B29" s="3"/>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B30" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B31" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B32" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B33" s="3" t="s">
-        <v>29</v>
-      </c>
+      <c r="B33" s="3"/>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B34" s="3" t="s">
-        <v>30</v>
-      </c>
+      <c r="B34" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1" location="Sec17" display="Sec17" xr:uid="{5E4099F5-0805-441F-A802-390DD40EB25C}"/>
-    <hyperlink ref="B5" r:id="rId2" display="https://patents.google.com/patent/US6057846A/en" xr:uid="{5388708F-63E8-418C-9454-985637FAC985}"/>
-    <hyperlink ref="B6" r:id="rId3" display="https://www.tandfonline.com/doi/full/10.1080/02699931.2012.656581" xr:uid="{6950E93E-BF8E-4BF8-807A-4990B3F785D5}"/>
-    <hyperlink ref="B7" r:id="rId4" display="https://link.springer.com/chapter/10.1007/978-3-642-13226-1_8" xr:uid="{EEDE0819-90D3-47DB-8FB2-8889DCBFC467}"/>
-    <hyperlink ref="B8" r:id="rId5" display="https://dl.acm.org/doi/abs/10.1145/2134203.2134206" xr:uid="{B3DD2416-8BA7-400B-A665-173A82569CA3}"/>
-    <hyperlink ref="B9" r:id="rId6" display="https://link.springer.com/chapter/10.1007/978-3-030-62746-1_3" xr:uid="{FB3FF082-A88D-482D-A111-FB9897A287A2}"/>
-    <hyperlink ref="B10" r:id="rId7" display="https://ieeexplore.ieee.org/abstract/document/8516493" xr:uid="{436B7D9B-955C-4D7B-AE86-F328272548B3}"/>
-    <hyperlink ref="B11" r:id="rId8" display="https://ieeexplore.ieee.org/abstract/document/6479188" xr:uid="{ECB9D7FA-FBBB-4F60-839B-C237F8831A8B}"/>
-    <hyperlink ref="B12" r:id="rId9" location="v=onepage&amp;q&amp;f=false" display="https://books.google.de/books?hl=de&amp;lr=&amp;id=cz2SBQAAQBAJ&amp;oi=fnd&amp;pg=PR5&amp;dq=Conditioning+*+AND+Virtual+Reality+*+AND+Movement+*+AND+Negative+Reinforcement+&amp;ots=H8KWvoktOn&amp;sig=_3RPtLVHQPCvfeKQD-D1jl7_5-c - v=onepage&amp;q&amp;f=false" xr:uid="{553FF3AB-9637-446C-8BF2-D64728672161}"/>
-    <hyperlink ref="B13" r:id="rId10" display="https://www.frontiersin.org/articles/10.3389/fnbeh.2018.00036/full?report=reader" xr:uid="{2F0FC83E-7E50-41A4-ADE0-0F4B046C924C}"/>
-    <hyperlink ref="B14" r:id="rId11" location="v=onepage&amp;q&amp;f=false" display="https://books.google.de/books?hl=de&amp;lr=&amp;id=X_15AgAAQBAJ&amp;oi=fnd&amp;pg=PA283&amp;dq=Conditioning+*+AND+Virtual+Reality+*+AND+Movement+*+AND+Negative+Reinforcement+&amp;ots=9LJLGvVSWZ&amp;sig=kGAXrO2OMnuRBdauwE1Tug7JLRQ - v=onepage&amp;q&amp;f=false" xr:uid="{916312FF-6BE4-4A72-A621-7350A1721B92}"/>
-    <hyperlink ref="B15" r:id="rId12" display="https://patents.google.com/patent/US20180366028A1/en" xr:uid="{685FD85E-9304-48F9-B6DE-E0C6BFBD77EA}"/>
-    <hyperlink ref="B16" r:id="rId13" display="https://ieeexplore.ieee.org/abstract/document/7835276" xr:uid="{79F8A8C1-68B4-4C37-B51E-889C330FDD46}"/>
-    <hyperlink ref="B18" r:id="rId14" display="https://link.springer.com/chapter/10.1007/978-3-658-13549-2_10" xr:uid="{64D25CDC-1DBF-49AA-A3CE-A78AF9F22E9B}"/>
-    <hyperlink ref="B19" r:id="rId15" display="https://link.springer.com/chapter/10.1007/978-3-642-16197-1_67" xr:uid="{92982B46-2E63-473A-89B5-2345D7CF68A0}"/>
-    <hyperlink ref="B20" r:id="rId16" display="https://link.springer.com/chapter/10.1007/978-3-211-99131-2_2080" xr:uid="{F6346FF7-6040-4720-9C2B-9807A68C87E0}"/>
-    <hyperlink ref="B21" r:id="rId17" display="https://link.springer.com/chapter/10.1007/978-3-540-79545-2_13" xr:uid="{E825E253-B476-48C6-99CB-AC1638A7D3C4}"/>
-    <hyperlink ref="B22" r:id="rId18" display="https://www.zora.uzh.ch/id/eprint/54486/" xr:uid="{0AEE8348-ADA2-4709-8AEA-D5D8E703AB5D}"/>
-    <hyperlink ref="B23" r:id="rId19" display="https://monami.hs-mittweida.de/frontdoor/deliver/index/docId/11080/file/Bachelorarbeit.pdf" xr:uid="{A09FFC4A-FB74-4C85-B0EB-ECF3985917B1}"/>
-    <hyperlink ref="B24" r:id="rId20" display="https://uol.de/f/2/dept/informatik/ag/parsys/BA_Jens_Rauch_Gamification.pdf" xr:uid="{7E3E9572-7A8D-414C-AF2C-4AF644E578E9}"/>
-    <hyperlink ref="B25" r:id="rId21" display="https://link.springer.com/chapter/10.1007/978-3-658-30178-1_6" xr:uid="{DE01963A-A4BE-4524-936E-E404516C2609}"/>
-    <hyperlink ref="B26" r:id="rId22" display="https://link.springer.com/chapter/10.1007/978-3-540-79541-4_8" xr:uid="{DBD209CF-EEDE-4A3B-A024-A1F3C2DB8800}"/>
-    <hyperlink ref="B28" r:id="rId23" display="https://link.springer.com/chapter/10.1007/978-3-658-19123-8_7" xr:uid="{A2C6F843-DEC9-4C80-AD67-324792E89D9A}"/>
-    <hyperlink ref="B29" r:id="rId24" display="https://link.springer.com/chapter/10.1007/978-3-662-56551-3_2" xr:uid="{44E650BD-0051-4509-AB13-18E144728A70}"/>
-    <hyperlink ref="B30" r:id="rId25" display="https://link.springer.com/chapter/10.1007/978-3-658-25524-4_11" xr:uid="{2F461F71-5BC0-4076-B167-113692D26143}"/>
-    <hyperlink ref="B31" r:id="rId26" display="https://devde.acad-write.com/wp-content/uploads/2019/08/muster-hausarbeit-vr-informatik.pdf" xr:uid="{B6A29D5E-EAC6-42D8-ADD8-DB6249E43D48}"/>
-    <hyperlink ref="B32" r:id="rId27" display="https://publications.rwth-aachen.de/record/745922/files/745922.pdf" xr:uid="{5813B25C-0FD2-43C0-91C5-DAF5B8878444}"/>
-    <hyperlink ref="B33" r:id="rId28" display="https://ediss.sub.uni-hamburg.de/handle/ediss/6160" xr:uid="{E5FFFCCB-C3DE-4E29-8207-1F9D231730B9}"/>
-    <hyperlink ref="B34" r:id="rId29" display="../../../Downloads/Beitrag_219_final__a.pdf" xr:uid="{DB528F56-BAE6-4B89-8411-39EDC871B9EC}"/>
+    <hyperlink ref="B5" r:id="rId1" location="Sec17" display="Sec17" xr:uid="{5E4099F5-0805-441F-A802-390DD40EB25C}"/>
+    <hyperlink ref="B6" r:id="rId2" display="https://www.tandfonline.com/doi/full/10.1080/02699931.2012.656581" xr:uid="{6950E93E-BF8E-4BF8-807A-4990B3F785D5}"/>
+    <hyperlink ref="B8" r:id="rId3" display="https://patents.google.com/patent/US20180366028A1/en" xr:uid="{685FD85E-9304-48F9-B6DE-E0C6BFBD77EA}"/>
+    <hyperlink ref="B9" r:id="rId4" display="https://ieeexplore.ieee.org/abstract/document/7835276" xr:uid="{79F8A8C1-68B4-4C37-B51E-889C330FDD46}"/>
+    <hyperlink ref="B11" r:id="rId5" display="https://link.springer.com/chapter/10.1007/978-3-540-79545-2_13" xr:uid="{E825E253-B476-48C6-99CB-AC1638A7D3C4}"/>
+    <hyperlink ref="N13" r:id="rId6" display="https://monami.hs-mittweida.de/frontdoor/deliver/index/docId/11080/file/Bachelorarbeit.pdf" xr:uid="{A09FFC4A-FB74-4C85-B0EB-ECF3985917B1}"/>
+    <hyperlink ref="N14" r:id="rId7" display="https://uol.de/f/2/dept/informatik/ag/parsys/BA_Jens_Rauch_Gamification.pdf" xr:uid="{7E3E9572-7A8D-414C-AF2C-4AF644E578E9}"/>
+    <hyperlink ref="B12" r:id="rId8" display="https://link.springer.com/chapter/10.1007/978-3-658-30178-1_6" xr:uid="{DE01963A-A4BE-4524-936E-E404516C2609}"/>
+    <hyperlink ref="B10" r:id="rId9" display="https://link.springer.com/chapter/10.1007/978-3-658-19123-8_7" xr:uid="{A2C6F843-DEC9-4C80-AD67-324792E89D9A}"/>
+    <hyperlink ref="N15" r:id="rId10" display="https://devde.acad-write.com/wp-content/uploads/2019/08/muster-hausarbeit-vr-informatik.pdf" xr:uid="{B6A29D5E-EAC6-42D8-ADD8-DB6249E43D48}"/>
+    <hyperlink ref="N16" r:id="rId11" display="https://publications.rwth-aachen.de/record/745922/files/745922.pdf" xr:uid="{5813B25C-0FD2-43C0-91C5-DAF5B8878444}"/>
+    <hyperlink ref="B7" r:id="rId12" display="https://www.nature.com/articles/nrn1651" xr:uid="{E3BD37B9-9804-4849-A813-56A2B5A094F3}"/>
+    <hyperlink ref="B13" r:id="rId13" display="https://ediss.sub.uni-hamburg.de/handle/ediss/6160" xr:uid="{5AA51640-6473-4296-9D70-F78A6127E966}"/>
+    <hyperlink ref="B14" r:id="rId14" display="https://dl.acm.org/doi/10.1145/311535.311589" xr:uid="{974F86CF-56C6-48E3-A726-F3E339FE01C7}"/>
+    <hyperlink ref="B16" r:id="rId15" display="https://dl.acm.org/doi/abs/10.1145/1227134.1227136" xr:uid="{6002A0DA-8548-4D5F-865A-FE0CB58D5928}"/>
+    <hyperlink ref="B17" r:id="rId16" display="https://dl.acm.org/doi/abs/10.1145/2043603.2043604" xr:uid="{2A228415-FC80-4AF2-909F-61BA906BD20F}"/>
+    <hyperlink ref="B19" r:id="rId17" display="https://link.springer.com/referencework/10.1007/978-0-387-79061-9" xr:uid="{19A8EA9A-63F2-42B2-8CA0-71FB05913BA2}"/>
+    <hyperlink ref="B30" r:id="rId18" display="https://www.game.de/wp-content/uploads/2018/08/Jahresreport-der-deutschen-Games-Branche-2018.pdf" xr:uid="{1BE09E2E-751B-4862-B54B-CF6E17AE602E}"/>
+    <hyperlink ref="B31" r:id="rId19" display="https://studyflix.de/biologie/operante-konditionierung-2561" xr:uid="{438E9E3E-FAA1-42BC-9CD5-D189ED12261C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId30"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId20"/>
 </worksheet>
 </file>
--- a/Quellen/Quellen.xlsx
+++ b/Quellen/Quellen.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robert\Desktop\Studium\Quellen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rob\Desktop\Studium\Quellen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE000473-C70A-48F5-AF17-5406E542C50B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81B10DA7-44F5-445C-AA14-B057BB0B7ED6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25320" yWindow="-2190" windowWidth="25440" windowHeight="15390" xr2:uid="{00DE174A-4130-4904-9374-9606CD6C5AF7}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00DE174A-4130-4904-9374-9606CD6C5AF7}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
   <si>
     <t>Quellen</t>
   </si>
@@ -109,6 +109,18 @@
   </si>
   <si>
     <t>Operante Konditionierung • Skinner und Definition | Studylfix · [mit Video] (studyflix.de)</t>
+  </si>
+  <si>
+    <t>MTI | Free Full-Text | The New Era of Virtual Reality Locomotion: A Systematic Literature Review of Techniques and a Proposed Typology (mdpi.com)</t>
+  </si>
+  <si>
+    <t>Dynamic Affordances in Embodied Interactive Systems: The Role of Display and Mode of Locomotion - IEEE Journals &amp; Magazine</t>
+  </si>
+  <si>
+    <t>Comparing the performance of natural, semi-natural, and non-natural locomotion techniques in virtual reality - IEEE Conference Publication</t>
+  </si>
+  <si>
+    <t>Natural Walking in Virtual Reality: A Review: Computers in Entertainment: Vol 16, No 2 (acm.org)</t>
   </si>
 </sst>
 </file>
@@ -169,11 +181,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -489,24 +502,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1ADA3AB-8093-45D6-A3E3-9BBC6180E21B}">
-  <dimension ref="B3:N34"/>
+  <dimension ref="A3:N34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="10" max="10" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:14" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:14" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="J3" s="2"/>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.35">
       <c r="M4" s="2" t="s">
         <v>1</v>
       </c>
@@ -514,7 +527,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B5" s="3" t="s">
         <v>2</v>
       </c>
@@ -522,42 +535,42 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B6" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B7" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B8" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B9" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B10" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B11" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B12" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B13" s="3" t="s">
         <v>13</v>
       </c>
@@ -568,7 +581,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B14" s="3" t="s">
         <v>17</v>
       </c>
@@ -579,7 +592,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.35">
       <c r="M15" t="s">
         <v>15</v>
       </c>
@@ -587,7 +600,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B16" s="3" t="s">
         <v>18</v>
       </c>
@@ -598,42 +611,65 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B17" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B18" s="3"/>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B19" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B20" s="3"/>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" s="4">
+        <v>44250</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" s="4">
+        <v>44250</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B22" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B23" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B26" s="3"/>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B29" s="3"/>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B30" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B31" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B33" s="3"/>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B34" s="3"/>
     </row>
   </sheetData>
@@ -657,8 +693,12 @@
     <hyperlink ref="B19" r:id="rId17" display="https://link.springer.com/referencework/10.1007/978-0-387-79061-9" xr:uid="{19A8EA9A-63F2-42B2-8CA0-71FB05913BA2}"/>
     <hyperlink ref="B30" r:id="rId18" display="https://www.game.de/wp-content/uploads/2018/08/Jahresreport-der-deutschen-Games-Branche-2018.pdf" xr:uid="{1BE09E2E-751B-4862-B54B-CF6E17AE602E}"/>
     <hyperlink ref="B31" r:id="rId19" display="https://studyflix.de/biologie/operante-konditionierung-2561" xr:uid="{438E9E3E-FAA1-42BC-9CD5-D189ED12261C}"/>
+    <hyperlink ref="B20" r:id="rId20" display="https://www.mdpi.com/2414-4088/1/4/24" xr:uid="{A4961EDF-8532-4530-9A74-14B43ABF4D3A}"/>
+    <hyperlink ref="B21" r:id="rId21" display="https://ieeexplore.ieee.org/abstract/document/6777453?casa_token=EE4BS_zePIAAAAAA:Ng5c4hTW6gEaV5vHpbL-c53M3IcmpnmEBAaYJjijJsH6SU567rqUWsjgRn37JB4prq3oZtdZFw" xr:uid="{595370C5-0F98-46C5-8130-359EA53C5AB0}"/>
+    <hyperlink ref="B22" r:id="rId22" display="https://ieeexplore.ieee.org/abstract/document/7131717?casa_token=4uQw-nMe4lsAAAAA:r5R5pnP786DN1jkGjppQJRc7oItf2r2klhyY82RFQIgrX8f5wwRXRWD_S-11khQsONdOU2oCMw" xr:uid="{28C4B720-4BFA-4CE3-A7A3-C0C65DE57EEF}"/>
+    <hyperlink ref="B23" r:id="rId23" display="https://dl.acm.org/doi/abs/10.1145/3180658?casa_token=gAlmGX8hsXYAAAAA:xajOBTzM2qEWe33vuxpsk4JmYfGXrbVHopqJPdlHs_VEv2rfLPOtnhw4Vy6A9_JYlwpFRFLl20Gx" xr:uid="{23A0066C-AD2E-4986-AFFB-C325119B5F16}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId20"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId24"/>
 </worksheet>
 </file>